--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4009.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4009.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.479661237554298</v>
+        <v>3.872588634490967</v>
       </c>
       <c r="B1">
-        <v>2.508843246972552</v>
+        <v>5.900938987731934</v>
       </c>
       <c r="C1">
-        <v>3.092777319144564</v>
+        <v>6.616466522216797</v>
       </c>
       <c r="D1">
-        <v>3.587657556016046</v>
+        <v>9.912729263305664</v>
       </c>
       <c r="E1">
-        <v>2.097269054949148</v>
+        <v>5.800085067749023</v>
       </c>
     </row>
   </sheetData>
